--- a/src/test/java/com/incubyte/testData/TestData.xlsx
+++ b/src/test/java/com/incubyte/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Frameworks\Incubyte\src\test\java\com\incubyte\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF8DBC-6C12-495F-8831-ED37772C9066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132E28D-CB84-4059-AD7E-5629DDF66B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A15FFC-9464-4A3E-9379-A90C241803F7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -52,22 +52,175 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetan </t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>Abc@xyz.com</t>
-  </si>
-  <si>
-    <t>Abc@123NA</t>
-  </si>
-  <si>
-    <t>Mohan</t>
+    <t>jOzEDpRI</t>
+  </si>
+  <si>
+    <t>TUioHaBj</t>
+  </si>
+  <si>
+    <t>ftxyarpjlk@example.com</t>
+  </si>
+  <si>
+    <t>omYF3]gRL8</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>nfdgbgdiiu@example.com</t>
+  </si>
+  <si>
+    <t>l;/D]?H6</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>amanda.martinez1735494040837@test.com</t>
+  </si>
+  <si>
+    <t>aOP,'.cK1y</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>david.johnson1735495332569@mydomain.com</t>
+  </si>
+  <si>
+    <t>t&amp;{w85CSxM</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>kimberly.lopez1735495539352@example.com</t>
+  </si>
+  <si>
+    <t>1r(@1uY&lt;2*N,Fdi</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>melissa.green1735497019977@sample.org</t>
+  </si>
+  <si>
+    <t>H7|^t137,[fWM9</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>mark.gonzalez1735498276917@sample.org</t>
+  </si>
+  <si>
+    <t>G8B=Z!']=s4eLn</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>amanda.roberts1735498345444@example.com</t>
+  </si>
+  <si>
+    <t>#0z;ih|JOnX)}3H</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>william.robinson1735498551261@mail.com</t>
+  </si>
+  <si>
+    <t>:Hixyt1']-*</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>michelle.thompson1735498624990@mail.com</t>
+  </si>
+  <si>
+    <t>8p&amp;LFn-X*</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>jennifer.adams1735499713054@mail.com</t>
+  </si>
+  <si>
+    <t>&gt;LC:KPj1</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>kevin.brown1735499792052@mail.com</t>
+  </si>
+  <si>
+    <t>fI@q2&lt;#ZS/)&gt;m`8</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>deborah.brown1735499863349@email.net</t>
+  </si>
+  <si>
+    <t>&lt;&amp;TKnR-b8kvX1</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>betty.mitchell1735500030357@email.net</t>
+  </si>
+  <si>
+    <t>0EKc9#Fc{pP</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>charles.wright1735500797531@example.com</t>
+  </si>
+  <si>
+    <t>2T({Wev`3</t>
   </si>
 </sst>
 </file>
@@ -431,17 +584,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EEB37E-4A37-44DD-8D69-14AE2FADFEFE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.5703125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125"/>
+    <col min="4" max="4" customWidth="true" width="34.140625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375"/>
   </cols>
@@ -468,26 +621,18 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/java/com/incubyte/testData/TestData.xlsx
+++ b/src/test/java/com/incubyte/testData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>2T({Wev`3</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>anthony.nelson1735501294422@sample.org</t>
+  </si>
+  <si>
+    <t>QV7N$;j~OJ-yK|</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>kenneth.davis1735829535753@sample.org</t>
+  </si>
+  <si>
+    <t>N+Dpv8$HjJ,</t>
   </si>
 </sst>
 </file>
@@ -621,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/src/test/java/com/incubyte/testData/TestData.xlsx
+++ b/src/test/java/com/incubyte/testData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -245,6 +245,30 @@
   </si>
   <si>
     <t>N+Dpv8$HjJ,</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>robert.torres1735829893157@webmail.com</t>
+  </si>
+  <si>
+    <t>^5r39VN'Ub</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>andrew.williams1735829998241@test.com</t>
+  </si>
+  <si>
+    <t>5xX$H^{-t</t>
   </si>
 </sst>
 </file>
@@ -645,16 +669,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1"/>
     </row>
